--- a/tests/data/madeup_H2_O2_ST_conc.xlsx
+++ b/tests/data/madeup_H2_O2_ST_conc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CC823C-E0FB-D248-A896-A2328DE0AAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{680FF590-1CD2-A647-8F14-CB344F61EE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46320" yWindow="4140" windowWidth="14720" windowHeight="12480" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20620" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2" sheetId="25" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -584,7 +585,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
